--- a/src/resources/excel/sg_fields.xlsx
+++ b/src/resources/excel/sg_fields.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Field Name</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Field Name</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Field Name</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Field Name</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/src/resources/excel/sg_fields.xlsx
+++ b/src/resources/excel/sg_fields.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info Type Control Fields" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country Specific Fields" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Similar Fields" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non-existing Fields" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Similar Fields" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non-existing Fields" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country Specific Fields" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country Specific Fields Naming" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Field Description</t>
+          <t>Field Name/Description</t>
         </is>
       </c>
     </row>
@@ -730,6 +731,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Field Name/Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SG&amp;MY STRAS:	Street and House Number</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SG&amp;MY LOCAT:	2nd Address Line</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SG&amp;MY ORT01:	City</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SG&amp;MY STATE:	Region (State, Province, County)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SG&amp;MY PSTLZ:	Postal Code</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SG&amp;MY LAND1:	Country/Region Key</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SG&amp;MY TELNR:	Telephone Number</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SG SPEMS:	Spouse employment status</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MY SEMPS:	Spouse employment status</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FGBOT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Birthplace</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Field Name/Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FGBOT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Birthplace</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -751,7 +910,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Field Description</t>
+          <t>Field Name/Description</t>
         </is>
       </c>
     </row>
@@ -1060,13 +1219,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,134 +1241,403 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Field Description</t>
+          <t>Field Name/Description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SG&amp;MY STRAS:	Street and House Number</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>ename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HCMFamMbrEmployerName</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SG&amp;MY LOCAT:	2nd Address Line</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>desgn</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HCMFamMbrDesignation</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SG&amp;MY ORT01:	City</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>stras</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HCMFamMbrStreet</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SG&amp;MY STATE:	Region (State, Province, County)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>locat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HCMFamMbr2ndAddressLine</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SG&amp;MY PSTLZ:	Postal Code</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>ort01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HCMFamMbrCity</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SG&amp;MY LAND1:	Country/Region Key</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HCMFamMbrRegionCode</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SG&amp;MY TELNR:	Telephone Number</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>pstlz</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HCMFamMbrPostalCode</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SG SPEMS:	Spouse employment status</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>land1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HCMFamMbrCountryKey</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MY SEMPS:	Spouse employment status</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>telnr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HCMFamMbrPhoneNumber</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FGBOT</t>
+          <t>sname</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Birthplace</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Field</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Field Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FGBOT</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Birthplace</t>
+          <t>HCMFamMbrSchoolHospital</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>strt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HCMFamMbrStreetHouseNum</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>loct</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HCMFamMbrStreetHouseNum2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>telph</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HCMFamMbrPhoneNumber2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HCMFamMbrCity2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pstcd</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HCMFamMbrPostalCode2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>land</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HCMFamMbrCountryKey2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>landx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HCMFamMbrCountryName</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>stat1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HCMFamMbrRegionCode2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>perid</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HCMFamMbrPersonnelId</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>taxnb</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HCMFamMbrTaxId</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pmres</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HCMFamMbrResidencyType</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>racky</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HCMFamMbrEthnicOrigin</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>spems</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HCMFamMbrHasSpouseEmployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>permo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HCMFamMbrPersonnelIdMod</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>spuem</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HCMFamMbrHasSharedParentalLv</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>confn</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HCMFamMbrConfinementNum</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>clcno</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HCMFamMbrChildBirthCertNum</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>cldty</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HCMFamMbrChildType</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fccsl</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HCMFamMbrCCSLValidity</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>syccl</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HCMFamMbrCCLEntitlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>scclb</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HCMFamMbrCCLStartYear</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>spaim</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HCMFamMbrIsSpouseIncome4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>qtspl</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>HCMFamMbrSharedParentalLvDays</t>
         </is>
       </c>
     </row>
